--- a/src/data/housing_market_Q1/final/mw2302-february-city-toronto.xlsx
+++ b/src/data/housing_market_Q1/final/mw2302-february-city-toronto.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="all_home_type" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="detached" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="semi_detached" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="townhouse" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="condo_townhouse" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="condo_apartment" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="link" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="coop_apartment" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="detached_condo" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="co_ownership_apartment" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="index_and_benchmark_price" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="all_home_type" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="detached" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="semi_detached" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="townhouse" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="condo_townhouse" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="condo_apartment" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="link" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="coop_apartment" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="detached_condo" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="co_ownership_apartment" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="index_and_benchmark_price" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,17 +456,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Dollar Volume</t>
+          <t>Dollar Volume ($)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Average Price</t>
+          <t>Average Price ($)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Median Price</t>
+          <t>Median Price ($)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -504,20 +504,14 @@
           <t>7,877</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>$8,453,111,806</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>$1,073,138</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>$925,000</t>
-        </is>
+      <c r="D2" t="n">
+        <v>8453111806</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1073138</v>
+      </c>
+      <c r="F2" t="n">
+        <v>925000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -550,20 +544,14 @@
           <t>2,851</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>$2,960,574,404</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>$1,038,434</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>$829,000</t>
-        </is>
+      <c r="D3" t="n">
+        <v>2960574404</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1038434</v>
+      </c>
+      <c r="F3" t="n">
+        <v>829000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -596,20 +584,14 @@
           <t>783</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>$761,423,904</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>$972,444</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>$840,000</t>
-        </is>
+      <c r="D4" t="n">
+        <v>761423904</v>
+      </c>
+      <c r="E4" t="n">
+        <v>972444</v>
+      </c>
+      <c r="F4" t="n">
+        <v>840000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -642,20 +624,14 @@
           <t>53</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>$58,407,026</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>$1,102,019</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>$977,500</t>
-        </is>
+      <c r="D5" t="n">
+        <v>58407026</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1102019</v>
+      </c>
+      <c r="F5" t="n">
+        <v>977500</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -688,20 +664,14 @@
           <t>67</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>$83,173,718</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>$1,241,399</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>$1,120,000</t>
-        </is>
+      <c r="D6" t="n">
+        <v>83173718</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1241399</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1120000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -734,20 +704,14 @@
           <t>64</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>$56,793,676</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>$887,401</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>$881,500</t>
-        </is>
+      <c r="D7" t="n">
+        <v>56793676</v>
+      </c>
+      <c r="E7" t="n">
+        <v>887401</v>
+      </c>
+      <c r="F7" t="n">
+        <v>881500</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -780,20 +744,14 @@
           <t>94</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>$80,783,583</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>$859,400</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>$824,444</t>
-        </is>
+      <c r="D8" t="n">
+        <v>80783583</v>
+      </c>
+      <c r="E8" t="n">
+        <v>859400</v>
+      </c>
+      <c r="F8" t="n">
+        <v>824444</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -826,20 +784,14 @@
           <t>102</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>$78,373,600</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>$768,369</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>$720,000</t>
-        </is>
+      <c r="D9" t="n">
+        <v>78373600</v>
+      </c>
+      <c r="E9" t="n">
+        <v>768369</v>
+      </c>
+      <c r="F9" t="n">
+        <v>720000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -872,20 +824,14 @@
           <t>141</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>$125,847,002</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>$892,532</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>$795,000</t>
-        </is>
+      <c r="D10" t="n">
+        <v>125847002</v>
+      </c>
+      <c r="E10" t="n">
+        <v>892532</v>
+      </c>
+      <c r="F10" t="n">
+        <v>795000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -918,20 +864,14 @@
           <t>23</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>$36,799,500</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>$1,599,978</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>$1,248,000</t>
-        </is>
+      <c r="D11" t="n">
+        <v>36799500</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1599978</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1248000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -964,20 +904,14 @@
           <t>142</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>$164,458,911</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>$1,158,161</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>$745,500</t>
-        </is>
+      <c r="D12" t="n">
+        <v>164458911</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1158161</v>
+      </c>
+      <c r="F12" t="n">
+        <v>745500</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1010,20 +944,14 @@
           <t>38</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>$32,687,038</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>$860,185</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>$815,000</t>
-        </is>
+      <c r="D13" t="n">
+        <v>32687038</v>
+      </c>
+      <c r="E13" t="n">
+        <v>860185</v>
+      </c>
+      <c r="F13" t="n">
+        <v>815000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1056,20 +984,14 @@
           <t>59</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>$44,099,850</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>$747,455</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>$753,000</t>
-        </is>
+      <c r="D14" t="n">
+        <v>44099850</v>
+      </c>
+      <c r="E14" t="n">
+        <v>747455</v>
+      </c>
+      <c r="F14" t="n">
+        <v>753000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1102,20 +1024,14 @@
           <t>1,416</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>$1,555,063,734</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>$1,098,209</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>$780,000</t>
-        </is>
+      <c r="D15" t="n">
+        <v>1555063734</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1098209</v>
+      </c>
+      <c r="F15" t="n">
+        <v>780000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1148,20 +1064,14 @@
           <t>421</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>$375,418,542</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>$891,731</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>$705,000</t>
-        </is>
+      <c r="D16" t="n">
+        <v>375418542</v>
+      </c>
+      <c r="E16" t="n">
+        <v>891731</v>
+      </c>
+      <c r="F16" t="n">
+        <v>705000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1194,20 +1104,14 @@
           <t>83</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>$140,645,636</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>$1,694,526</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>$1,255,000</t>
-        </is>
+      <c r="D17" t="n">
+        <v>140645636</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1694526</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1255000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1240,20 +1144,14 @@
           <t>52</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>$69,314,598</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>$1,332,973</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>$954,500</t>
-        </is>
+      <c r="D18" t="n">
+        <v>69314598</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1332973</v>
+      </c>
+      <c r="F18" t="n">
+        <v>954500</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1286,20 +1184,14 @@
           <t>67</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>$127,838,942</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>$1,908,044</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>$1,810,000</t>
-        </is>
+      <c r="D19" t="n">
+        <v>127838942</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1908044</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1810000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1332,20 +1224,14 @@
           <t>30</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>$30,004,393</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>$1,000,146</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>$827,000</t>
-        </is>
+      <c r="D20" t="n">
+        <v>30004393</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1000146</v>
+      </c>
+      <c r="F20" t="n">
+        <v>827000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1378,20 +1264,14 @@
           <t>104</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>$116,645,788</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>$1,121,594</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>$830,900</t>
-        </is>
+      <c r="D21" t="n">
+        <v>116645788</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1121594</v>
+      </c>
+      <c r="F21" t="n">
+        <v>830900</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1424,20 +1304,14 @@
           <t>188</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>$143,000,505</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>$760,641</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>$680,000</t>
-        </is>
+      <c r="D22" t="n">
+        <v>143000505</v>
+      </c>
+      <c r="E22" t="n">
+        <v>760641</v>
+      </c>
+      <c r="F22" t="n">
+        <v>680000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1470,20 +1344,14 @@
           <t>22</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>$49,497,300</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>$2,249,877</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>$2,066,400</t>
-        </is>
+      <c r="D23" t="n">
+        <v>49497300</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2249877</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2066400</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1516,20 +1384,14 @@
           <t>74</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>$68,626,897</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>$927,391</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>$730,000</t>
-        </is>
+      <c r="D24" t="n">
+        <v>68626897</v>
+      </c>
+      <c r="E24" t="n">
+        <v>927391</v>
+      </c>
+      <c r="F24" t="n">
+        <v>730000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1562,20 +1424,14 @@
           <t>45</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>$64,653,300</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>$1,436,740</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>$950,000</t>
-        </is>
+      <c r="D25" t="n">
+        <v>64653300</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1436740</v>
+      </c>
+      <c r="F25" t="n">
+        <v>950000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1608,20 +1464,14 @@
           <t>24</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>$53,033,500</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>$2,209,729</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>$1,510,000</t>
-        </is>
+      <c r="D26" t="n">
+        <v>53033500</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2209729</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1510000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1654,20 +1504,14 @@
           <t>65</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>$75,464,612</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>$1,160,994</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>$870,000</t>
-        </is>
+      <c r="D27" t="n">
+        <v>75464612</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1160994</v>
+      </c>
+      <c r="F27" t="n">
+        <v>870000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1700,20 +1544,14 @@
           <t>105</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>$110,393,901</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>$1,051,370</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>$770,000</t>
-        </is>
+      <c r="D28" t="n">
+        <v>110393901</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1051370</v>
+      </c>
+      <c r="F28" t="n">
+        <v>770000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1746,20 +1584,14 @@
           <t>136</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>$130,525,820</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>$959,749</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>$719,000</t>
-        </is>
+      <c r="D29" t="n">
+        <v>130525820</v>
+      </c>
+      <c r="E29" t="n">
+        <v>959749</v>
+      </c>
+      <c r="F29" t="n">
+        <v>719000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1792,20 +1624,14 @@
           <t>652</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>$644,086,766</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>$987,863</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>$930,750</t>
-        </is>
+      <c r="D30" t="n">
+        <v>644086766</v>
+      </c>
+      <c r="E30" t="n">
+        <v>987863</v>
+      </c>
+      <c r="F30" t="n">
+        <v>930750</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1838,20 +1664,14 @@
           <t>63</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>$72,901,553</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>$1,157,168</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>$1,100,000</t>
-        </is>
+      <c r="D31" t="n">
+        <v>72901553</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1157168</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1100000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1884,20 +1704,14 @@
           <t>53</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>$67,262,479</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>$1,269,103</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>$1,230,000</t>
-        </is>
+      <c r="D32" t="n">
+        <v>67262479</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1269103</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1230000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1930,20 +1744,14 @@
           <t>85</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>$99,831,444</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>$1,174,488</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>$1,120,000</t>
-        </is>
+      <c r="D33" t="n">
+        <v>99831444</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1174488</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1120000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1976,20 +1784,14 @@
           <t>73</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>$64,687,885</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>$886,135</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>$925,000</t>
-        </is>
+      <c r="D34" t="n">
+        <v>64687885</v>
+      </c>
+      <c r="E34" t="n">
+        <v>886135</v>
+      </c>
+      <c r="F34" t="n">
+        <v>925000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2022,20 +1824,14 @@
           <t>63</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>$56,623,576</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>$898,787</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>$725,000</t>
-        </is>
+      <c r="D35" t="n">
+        <v>56623576</v>
+      </c>
+      <c r="E35" t="n">
+        <v>898787</v>
+      </c>
+      <c r="F35" t="n">
+        <v>725000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2068,20 +1864,14 @@
           <t>29</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>$33,430,292</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>$1,152,769</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>$925,000</t>
-        </is>
+      <c r="D36" t="n">
+        <v>33430292</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1152769</v>
+      </c>
+      <c r="F36" t="n">
+        <v>925000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2114,20 +1904,14 @@
           <t>61</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>$49,083,987</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>$804,656</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>$650,000</t>
-        </is>
+      <c r="D37" t="n">
+        <v>49083987</v>
+      </c>
+      <c r="E37" t="n">
+        <v>804656</v>
+      </c>
+      <c r="F37" t="n">
+        <v>650000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2160,20 +1944,14 @@
           <t>53</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>$49,123,000</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>$926,849</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>$905,000</t>
-        </is>
+      <c r="D38" t="n">
+        <v>49123000</v>
+      </c>
+      <c r="E38" t="n">
+        <v>926849</v>
+      </c>
+      <c r="F38" t="n">
+        <v>905000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2206,20 +1984,14 @@
           <t>75</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>$63,652,076</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>$848,694</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>$850,000</t>
-        </is>
+      <c r="D39" t="n">
+        <v>63652076</v>
+      </c>
+      <c r="E39" t="n">
+        <v>848694</v>
+      </c>
+      <c r="F39" t="n">
+        <v>850000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2252,20 +2024,14 @@
           <t>39</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>$41,465,400</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>$1,063,215</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>$1,020,000</t>
-        </is>
+      <c r="D40" t="n">
+        <v>41465400</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1063215</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1020000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2298,20 +2064,14 @@
           <t>58</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>$46,025,074</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>$793,536</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>$770,000</t>
-        </is>
+      <c r="D41" t="n">
+        <v>46025074</v>
+      </c>
+      <c r="E41" t="n">
+        <v>793536</v>
+      </c>
+      <c r="F41" t="n">
+        <v>770000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2362,17 +2122,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Dollar Volume</t>
+          <t>Dollar Volume ($)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Average Price</t>
+          <t>Average Price ($)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Median Price</t>
+          <t>Median Price ($)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -2408,20 +2168,14 @@
       <c r="C2" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>$1,435,513</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>$478,504</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>$450,000</t>
-        </is>
+      <c r="D2" t="n">
+        <v>1435513</v>
+      </c>
+      <c r="E2" t="n">
+        <v>478504</v>
+      </c>
+      <c r="F2" t="n">
+        <v>450000</v>
       </c>
       <c r="G2" t="n">
         <v>8</v>
@@ -2452,20 +2206,14 @@
       <c r="C3" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>$1,435,513</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>$478,504</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>$450,000</t>
-        </is>
+      <c r="D3" t="n">
+        <v>1435513</v>
+      </c>
+      <c r="E3" t="n">
+        <v>478504</v>
+      </c>
+      <c r="F3" t="n">
+        <v>450000</v>
       </c>
       <c r="G3" t="n">
         <v>8</v>
@@ -2496,20 +2244,14 @@
       <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>$1,435,513</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>$478,504</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>$450,000</t>
-        </is>
+      <c r="D4" t="n">
+        <v>1435513</v>
+      </c>
+      <c r="E4" t="n">
+        <v>478504</v>
+      </c>
+      <c r="F4" t="n">
+        <v>450000</v>
       </c>
       <c r="G4" t="n">
         <v>7</v>
@@ -2540,20 +2282,14 @@
       <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>$540,000</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>$540,000</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>$540,000</t>
-        </is>
+      <c r="D5" t="n">
+        <v>540000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>540000</v>
+      </c>
+      <c r="F5" t="n">
+        <v>540000</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -2584,20 +2320,14 @@
       <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>$450,000</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>$450,000</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>$450,000</t>
-        </is>
+      <c r="D6" t="n">
+        <v>450000</v>
+      </c>
+      <c r="E6" t="n">
+        <v>450000</v>
+      </c>
+      <c r="F6" t="n">
+        <v>450000</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -2628,20 +2358,14 @@
       <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>$445,513</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>$445,513</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>$445,513</t>
-        </is>
+      <c r="D7" t="n">
+        <v>445513</v>
+      </c>
+      <c r="E7" t="n">
+        <v>445513</v>
+      </c>
+      <c r="F7" t="n">
+        <v>445513</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -8079,17 +7803,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Dollar Volume</t>
+          <t>Dollar Volume ($)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Average Price</t>
+          <t>Average Price ($)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Median Price</t>
+          <t>Median Price ($)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -8127,20 +7851,14 @@
           <t>2,075</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>$2,987,451,029</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>$1,439,735</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>$1,257,000</t>
-        </is>
+      <c r="D2" t="n">
+        <v>2987451029</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1439735</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1257000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -8175,20 +7893,14 @@
           <t>482</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>$825,359,413</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>$1,712,364</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>$1,346,500</t>
-        </is>
+      <c r="D3" t="n">
+        <v>825359413</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1712364</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1346500</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -8223,20 +7935,14 @@
           <t>159</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>$232,563,260</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>$1,462,662</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>$1,200,000</t>
-        </is>
+      <c r="D4" t="n">
+        <v>232563260</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1462662</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1200000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -8271,20 +7977,14 @@
           <t>8</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>$14,901,027</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>$1,862,628</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>$2,029,500</t>
-        </is>
+      <c r="D5" t="n">
+        <v>14901027</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1862628</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2029500</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -8319,20 +8019,14 @@
           <t>16</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>$28,893,000</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>$1,805,813</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>$1,585,000</t>
-        </is>
+      <c r="D6" t="n">
+        <v>28893000</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1805813</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1585000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -8367,20 +8061,14 @@
           <t>21</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>$21,739,888</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>$1,035,233</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>$1,020,000</t>
-        </is>
+      <c r="D7" t="n">
+        <v>21739888</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1035233</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1020000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -8415,20 +8103,14 @@
           <t>25</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>$28,513,195</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>$1,140,528</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>$1,088,000</t>
-        </is>
+      <c r="D8" t="n">
+        <v>28513195</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1140528</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1088000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -8463,20 +8145,14 @@
           <t>14</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>$14,565,000</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>$1,040,357</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>$1,038,500</t>
-        </is>
+      <c r="D9" t="n">
+        <v>14565000</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1040357</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1038500</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -8511,20 +8187,14 @@
           <t>18</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>$25,088,500</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>$1,393,806</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>$1,191,250</t>
-        </is>
+      <c r="D10" t="n">
+        <v>25088500</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1393806</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1191250</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -8559,20 +8229,14 @@
           <t>10</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>$17,504,800</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>$1,750,480</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>$1,286,000</t>
-        </is>
+      <c r="D11" t="n">
+        <v>17504800</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1750480</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1286000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -8607,20 +8271,14 @@
           <t>28</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>$58,374,000</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>$2,084,786</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>$1,757,500</t>
-        </is>
+      <c r="D12" t="n">
+        <v>58374000</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2084786</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1757500</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -8655,20 +8313,14 @@
           <t>10</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>$13,297,000</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>$1,329,700</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>$1,300,000</t>
-        </is>
+      <c r="D13" t="n">
+        <v>13297000</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1329700</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1300000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -8703,20 +8355,14 @@
           <t>9</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>$9,686,850</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>$1,076,317</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>$1,100,000</t>
-        </is>
+      <c r="D14" t="n">
+        <v>9686850</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1076317</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1100000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -8751,20 +8397,14 @@
           <t>152</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>$367,498,273</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>$2,417,752</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>$2,035,400</t>
-        </is>
+      <c r="D15" t="n">
+        <v>367498273</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2417752</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2035400</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -8799,20 +8439,14 @@
           <t>3</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>$11,350,000</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>$3,783,333</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>$4,600,000</t>
-        </is>
+      <c r="D16" t="n">
+        <v>11350000</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3783333</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4600000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -8847,20 +8481,14 @@
           <t>7</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>$28,252,000</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>$4,036,000</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>$1,677,000</t>
-        </is>
+      <c r="D17" t="n">
+        <v>28252000</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4036000</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1677000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -8895,20 +8523,14 @@
           <t>10</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>$23,815,906</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>$2,381,591</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>$2,077,000</t>
-        </is>
+      <c r="D18" t="n">
+        <v>23815906</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2381591</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2077000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -8943,20 +8565,14 @@
           <t>20</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>$52,509,554</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>$2,625,478</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>$2,427,500</t>
-        </is>
+      <c r="D19" t="n">
+        <v>52509554</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2625478</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2427500</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -8991,20 +8607,14 @@
           <t>8</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>$11,901,875</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>$1,487,734</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>$1,552,500</t>
-        </is>
+      <c r="D20" t="n">
+        <v>11901875</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1487734</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1552500</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -9039,20 +8649,14 @@
           <t>29</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>$50,121,388</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>$1,728,324</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>$1,525,000</t>
-        </is>
+      <c r="D21" t="n">
+        <v>50121388</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1728324</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1525000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -9087,20 +8691,14 @@
           <t>5</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>$15,116,800</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>$3,023,360</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>$2,628,000</t>
-        </is>
+      <c r="D22" t="n">
+        <v>15116800</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3023360</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2628000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -9135,20 +8733,14 @@
           <t>6</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>$12,696,250</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>$2,116,042</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>$2,113,125</t>
-        </is>
+      <c r="D23" t="n">
+        <v>12696250</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2116042</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2113125</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -9183,20 +8775,14 @@
           <t>10</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>$29,246,000</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>$2,924,600</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>$3,193,000</t>
-        </is>
+      <c r="D24" t="n">
+        <v>29246000</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2924600</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3193000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -9231,20 +8817,14 @@
           <t>8</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>$32,810,000</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>$4,101,250</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>$3,800,000</t>
-        </is>
+      <c r="D25" t="n">
+        <v>32810000</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4101250</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3800000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -9279,20 +8859,14 @@
           <t>14</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>$30,619,000</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>$2,187,071</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>$2,250,000</t>
-        </is>
+      <c r="D26" t="n">
+        <v>30619000</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2187071</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2250000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -9327,20 +8901,14 @@
           <t>12</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>$30,662,000</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>$2,555,167</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>$2,053,000</t>
-        </is>
+      <c r="D27" t="n">
+        <v>30662000</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2555167</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2053000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -9375,20 +8943,14 @@
           <t>20</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>$38,397,500</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>$1,919,875</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>$1,744,500</t>
-        </is>
+      <c r="D28" t="n">
+        <v>38397500</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1919875</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1744500</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -9423,20 +8985,14 @@
           <t>171</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>$225,297,880</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>$1,317,531</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>$1,180,800</t>
-        </is>
+      <c r="D29" t="n">
+        <v>225297880</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1317531</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1180800</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -9471,20 +9027,14 @@
           <t>8</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>$13,250,100</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>$1,656,263</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>$1,750,000</t>
-        </is>
+      <c r="D30" t="n">
+        <v>13250100</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1656263</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1750000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -9519,20 +9069,14 @@
           <t>11</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>$18,540,583</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>$1,685,508</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>$1,330,000</t>
-        </is>
+      <c r="D31" t="n">
+        <v>18540583</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1685508</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1330000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -9567,20 +9111,14 @@
           <t>32</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>$45,361,200</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>$1,417,538</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>$1,360,900</t>
-        </is>
+      <c r="D32" t="n">
+        <v>45361200</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1417538</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1360900</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -9615,20 +9153,14 @@
           <t>16</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>$18,396,886</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>$1,149,805</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>$1,125,000</t>
-        </is>
+      <c r="D33" t="n">
+        <v>18396886</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1149805</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1125000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -9663,20 +9195,14 @@
           <t>14</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>$18,603,400</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>$1,328,814</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>$1,308,900</t>
-        </is>
+      <c r="D34" t="n">
+        <v>18603400</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1328814</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1308900</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -9711,20 +9237,14 @@
           <t>12</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>$18,785,111</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>$1,565,426</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>$1,255,556</t>
-        </is>
+      <c r="D35" t="n">
+        <v>18785111</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1565426</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1255556</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -9759,20 +9279,14 @@
           <t>9</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>$11,074,000</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>$1,230,444</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>$1,215,000</t>
-        </is>
+      <c r="D36" t="n">
+        <v>11074000</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1230444</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1215000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -9807,20 +9321,14 @@
           <t>18</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>$24,113,800</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>$1,339,656</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>$1,156,400</t>
-        </is>
+      <c r="D37" t="n">
+        <v>24113800</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1339656</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1156400</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -9855,20 +9363,14 @@
           <t>24</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>$26,015,800</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>$1,083,992</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>$1,097,500</t>
-        </is>
+      <c r="D38" t="n">
+        <v>26015800</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1083992</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1097500</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -9903,20 +9405,14 @@
           <t>15</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>$19,558,000</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>$1,303,867</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>$1,200,000</t>
-        </is>
+      <c r="D39" t="n">
+        <v>19558000</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1303867</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1200000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -9951,20 +9447,14 @@
           <t>12</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>$11,599,000</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>$966,583</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>$936,500</t>
-        </is>
+      <c r="D40" t="n">
+        <v>11599000</v>
+      </c>
+      <c r="E40" t="n">
+        <v>966583</v>
+      </c>
+      <c r="F40" t="n">
+        <v>936500</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -10017,17 +9507,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Dollar Volume</t>
+          <t>Dollar Volume ($)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Average Price</t>
+          <t>Average Price ($)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Median Price</t>
+          <t>Median Price ($)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -10063,20 +9553,14 @@
       <c r="C2" t="n">
         <v>399</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>$426,637,137</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>$1,069,266</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>$980,000</t>
-        </is>
+      <c r="D2" t="n">
+        <v>426637137</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1069266</v>
+      </c>
+      <c r="F2" t="n">
+        <v>980000</v>
       </c>
       <c r="G2" t="n">
         <v>587</v>
@@ -10107,20 +9591,14 @@
       <c r="C3" t="n">
         <v>144</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>$184,374,714</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>$1,280,380</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>$1,133,000</t>
-        </is>
+      <c r="D3" t="n">
+        <v>184374714</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1280380</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1133000</v>
       </c>
       <c r="G3" t="n">
         <v>222</v>
@@ -10151,20 +9629,14 @@
       <c r="C4" t="n">
         <v>45</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>$48,584,518</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>$1,079,656</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>$975,000</t>
-        </is>
+      <c r="D4" t="n">
+        <v>48584518</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1079656</v>
+      </c>
+      <c r="F4" t="n">
+        <v>975000</v>
       </c>
       <c r="G4" t="n">
         <v>81</v>
@@ -10195,20 +9667,14 @@
       <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>$4,435,000</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>$1,478,333</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>$1,475,000</t>
-        </is>
+      <c r="D5" t="n">
+        <v>4435000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1478333</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1475000</v>
       </c>
       <c r="G5" t="n">
         <v>8</v>
@@ -10239,20 +9705,14 @@
       <c r="C6" t="n">
         <v>10</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>$13,210,218</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>$1,321,022</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>$1,290,010</t>
-        </is>
+      <c r="D6" t="n">
+        <v>13210218</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1321022</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1290010</v>
       </c>
       <c r="G6" t="n">
         <v>24</v>
@@ -10283,20 +9743,14 @@
       <c r="C7" t="n">
         <v>8</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>$8,389,900</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>$1,048,738</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>$977,500</t>
-        </is>
+      <c r="D7" t="n">
+        <v>8389900</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1048738</v>
+      </c>
+      <c r="F7" t="n">
+        <v>977500</v>
       </c>
       <c r="G7" t="n">
         <v>14</v>
@@ -10327,20 +9781,14 @@
       <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>$2,030,000</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>$1,015,000</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>$1,015,000</t>
-        </is>
+      <c r="D8" t="n">
+        <v>2030000</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1015000</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1015000</v>
       </c>
       <c r="G8" t="n">
         <v>2</v>
@@ -10371,20 +9819,14 @@
       <c r="C9" t="n">
         <v>18</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>$16,419,400</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>$912,189</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>$915,000</t>
-        </is>
+      <c r="D9" t="n">
+        <v>16419400</v>
+      </c>
+      <c r="E9" t="n">
+        <v>912189</v>
+      </c>
+      <c r="F9" t="n">
+        <v>915000</v>
       </c>
       <c r="G9" t="n">
         <v>27</v>
@@ -10415,20 +9857,14 @@
       <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>$1,060,000</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>$1,060,000</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>$1,060,000</t>
-        </is>
+      <c r="D10" t="n">
+        <v>1060000</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1060000</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1060000</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
@@ -10459,20 +9895,14 @@
       <c r="C11" t="n">
         <v>1</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>$1,250,000</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>$1,250,000</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>$1,250,000</t>
-        </is>
+      <c r="D11" t="n">
+        <v>1250000</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1250000</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1250000</v>
       </c>
       <c r="G11" t="n">
         <v>3</v>
@@ -10503,20 +9933,14 @@
       <c r="C12" t="n">
         <v>2</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>$1,790,000</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>$895,000</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>$895,000</t>
-        </is>
+      <c r="D12" t="n">
+        <v>1790000</v>
+      </c>
+      <c r="E12" t="n">
+        <v>895000</v>
+      </c>
+      <c r="F12" t="n">
+        <v>895000</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -10547,20 +9971,14 @@
       <c r="C13" t="n">
         <v>45</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>$70,598,034</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>$1,568,845</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>$1,350,000</t>
-        </is>
+      <c r="D13" t="n">
+        <v>70598034</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1568845</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1350000</v>
       </c>
       <c r="G13" t="n">
         <v>73</v>
@@ -10591,20 +10009,14 @@
       <c r="C14" t="n">
         <v>15</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>$26,229,000</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>$1,748,600</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>$1,635,000</t>
-        </is>
+      <c r="D14" t="n">
+        <v>26229000</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1748600</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1635000</v>
       </c>
       <c r="G14" t="n">
         <v>24</v>
@@ -10635,20 +10047,14 @@
       <c r="C15" t="n">
         <v>5</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>$9,747,000</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>$1,949,400</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>$1,999,000</t>
-        </is>
+      <c r="D15" t="n">
+        <v>9747000</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1949400</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1999000</v>
       </c>
       <c r="G15" t="n">
         <v>9</v>
@@ -10679,20 +10085,14 @@
       <c r="C16" t="n">
         <v>6</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>$7,424,000</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>$1,237,333</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>$972,000</t>
-        </is>
+      <c r="D16" t="n">
+        <v>7424000</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1237333</v>
+      </c>
+      <c r="F16" t="n">
+        <v>972000</v>
       </c>
       <c r="G16" t="n">
         <v>8</v>
@@ -10723,20 +10123,14 @@
       <c r="C17" t="n">
         <v>5</v>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>$6,375,000</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>$1,275,000</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>$1,275,000</t>
-        </is>
+      <c r="D17" t="n">
+        <v>6375000</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1275000</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1275000</v>
       </c>
       <c r="G17" t="n">
         <v>6</v>
@@ -10767,20 +10161,14 @@
       <c r="C18" t="n">
         <v>1</v>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>$948,000</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>$948,000</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>$948,000</t>
-        </is>
+      <c r="D18" t="n">
+        <v>948000</v>
+      </c>
+      <c r="E18" t="n">
+        <v>948000</v>
+      </c>
+      <c r="F18" t="n">
+        <v>948000</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
@@ -10811,20 +10199,14 @@
       <c r="C19" t="n">
         <v>1</v>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>$940,000</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>$940,000</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>$940,000</t>
-        </is>
+      <c r="D19" t="n">
+        <v>940000</v>
+      </c>
+      <c r="E19" t="n">
+        <v>940000</v>
+      </c>
+      <c r="F19" t="n">
+        <v>940000</v>
       </c>
       <c r="G19" t="n">
         <v>6</v>
@@ -10855,20 +10237,14 @@
       <c r="C20" t="n">
         <v>1</v>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>$4,500,000</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>$4,500,000</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>$4,500,000</t>
-        </is>
+      <c r="D20" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="F20" t="n">
+        <v>4500000</v>
       </c>
       <c r="G20" t="n">
         <v>2</v>
@@ -10899,20 +10275,14 @@
       <c r="C21" t="n">
         <v>4</v>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>$5,818,734</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>$1,454,684</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>$1,346,250</t>
-        </is>
+      <c r="D21" t="n">
+        <v>5818734</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1454684</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1346250</v>
       </c>
       <c r="G21" t="n">
         <v>7</v>
@@ -10943,20 +10313,14 @@
       <c r="C22" t="n">
         <v>3</v>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>$4,404,800</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>$1,468,267</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>$1,555,000</t>
-        </is>
+      <c r="D22" t="n">
+        <v>4404800</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1468267</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1555000</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -10987,20 +10351,14 @@
       <c r="C23" t="n">
         <v>2</v>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>$1,954,000</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>$977,000</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>$977,000</t>
-        </is>
+      <c r="D23" t="n">
+        <v>1954000</v>
+      </c>
+      <c r="E23" t="n">
+        <v>977000</v>
+      </c>
+      <c r="F23" t="n">
+        <v>977000</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -11031,20 +10389,14 @@
       <c r="C24" t="n">
         <v>2</v>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>$2,257,500</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>$1,128,750</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>$1,128,750</t>
-        </is>
+      <c r="D24" t="n">
+        <v>2257500</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1128750</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1128750</v>
       </c>
       <c r="G24" t="n">
         <v>4</v>
@@ -11075,20 +10427,14 @@
       <c r="C25" t="n">
         <v>54</v>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>$65,192,162</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>$1,207,262</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>$1,140,500</t>
-        </is>
+      <c r="D25" t="n">
+        <v>65192162</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1207262</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1140500</v>
       </c>
       <c r="G25" t="n">
         <v>68</v>
@@ -11119,20 +10465,14 @@
       <c r="C26" t="n">
         <v>14</v>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>$19,751,906</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>$1,410,850</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>$1,420,000</t>
-        </is>
+      <c r="D26" t="n">
+        <v>19751906</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1410850</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1420000</v>
       </c>
       <c r="G26" t="n">
         <v>21</v>
@@ -11163,20 +10503,14 @@
       <c r="C27" t="n">
         <v>9</v>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>$12,659,500</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>$1,406,611</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>$1,338,000</t>
-        </is>
+      <c r="D27" t="n">
+        <v>12659500</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1406611</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1338000</v>
       </c>
       <c r="G27" t="n">
         <v>16</v>
@@ -11207,20 +10541,14 @@
       <c r="C28" t="n">
         <v>14</v>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>$17,431,455</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>$1,245,104</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>$1,183,200</t>
-        </is>
+      <c r="D28" t="n">
+        <v>17431455</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1245104</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1183200</v>
       </c>
       <c r="G28" t="n">
         <v>20</v>
@@ -11251,20 +10579,14 @@
       <c r="C29" t="n">
         <v>5</v>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>$4,118,000</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>$823,600</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>$765,000</t>
-        </is>
+      <c r="D29" t="n">
+        <v>4118000</v>
+      </c>
+      <c r="E29" t="n">
+        <v>823600</v>
+      </c>
+      <c r="F29" t="n">
+        <v>765000</v>
       </c>
       <c r="G29" t="n">
         <v>3</v>
@@ -11295,20 +10617,14 @@
       <c r="C30" t="n">
         <v>2</v>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>$2,061,001</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>$1,030,501</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>$1,030,501</t>
-        </is>
+      <c r="D30" t="n">
+        <v>2061001</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1030501</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1030501</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -11339,20 +10655,14 @@
       <c r="C31" t="n">
         <v>3</v>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>$3,148,800</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>$1,049,600</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>$1,077,000</t>
-        </is>
+      <c r="D31" t="n">
+        <v>3148800</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1049600</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1077000</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -11383,20 +10693,14 @@
       <c r="C32" t="n">
         <v>1</v>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>$935,000</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>$935,000</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>$935,000</t>
-        </is>
+      <c r="D32" t="n">
+        <v>935000</v>
+      </c>
+      <c r="E32" t="n">
+        <v>935000</v>
+      </c>
+      <c r="F32" t="n">
+        <v>935000</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -11427,20 +10731,14 @@
       <c r="C33" t="n">
         <v>1</v>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>$735,000</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>$735,000</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>$735,000</t>
-        </is>
+      <c r="D33" t="n">
+        <v>735000</v>
+      </c>
+      <c r="E33" t="n">
+        <v>735000</v>
+      </c>
+      <c r="F33" t="n">
+        <v>735000</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -11471,20 +10769,14 @@
       <c r="C34" t="n">
         <v>5</v>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>$4,351,500</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>$870,300</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>$891,500</t>
-        </is>
+      <c r="D34" t="n">
+        <v>4351500</v>
+      </c>
+      <c r="E34" t="n">
+        <v>870300</v>
+      </c>
+      <c r="F34" t="n">
+        <v>891500</v>
       </c>
       <c r="G34" t="n">
         <v>4</v>
@@ -11535,17 +10827,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Dollar Volume</t>
+          <t>Dollar Volume ($)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Average Price</t>
+          <t>Average Price ($)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Median Price</t>
+          <t>Median Price ($)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -11581,20 +10873,14 @@
       <c r="C2" t="n">
         <v>463</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>$486,308,365</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>$1,050,342</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>$968,000</t>
-        </is>
+      <c r="D2" t="n">
+        <v>486308365</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1050342</v>
+      </c>
+      <c r="F2" t="n">
+        <v>968000</v>
       </c>
       <c r="G2" t="n">
         <v>654</v>
@@ -11625,20 +10911,14 @@
       <c r="C3" t="n">
         <v>57</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>$75,811,063</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>$1,330,019</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>$1,150,000</t>
-        </is>
+      <c r="D3" t="n">
+        <v>75811063</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1330019</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1150000</v>
       </c>
       <c r="G3" t="n">
         <v>94</v>
@@ -11669,20 +10949,14 @@
       <c r="C4" t="n">
         <v>14</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>$16,681,527</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>$1,191,538</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>$1,112,500</t>
-        </is>
+      <c r="D4" t="n">
+        <v>16681527</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1191538</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1112500</v>
       </c>
       <c r="G4" t="n">
         <v>30</v>
@@ -11713,20 +10987,14 @@
       <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>$2,480,000</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>$1,240,000</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>$1,240,000</t>
-        </is>
+      <c r="D5" t="n">
+        <v>2480000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1240000</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1240000</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
@@ -11757,20 +11025,14 @@
       <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>$2,951,600</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>$1,475,800</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>$1,475,800</t>
-        </is>
+      <c r="D6" t="n">
+        <v>2951600</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1475800</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1475800</v>
       </c>
       <c r="G6" t="n">
         <v>7</v>
@@ -11801,20 +11063,14 @@
       <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>$1,970,000</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>$985,000</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>$985,000</t>
-        </is>
+      <c r="D7" t="n">
+        <v>1970000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>985000</v>
+      </c>
+      <c r="F7" t="n">
+        <v>985000</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -11845,20 +11101,14 @@
       <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>$892,000</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>$892,000</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>$892,000</t>
-        </is>
+      <c r="D8" t="n">
+        <v>892000</v>
+      </c>
+      <c r="E8" t="n">
+        <v>892000</v>
+      </c>
+      <c r="F8" t="n">
+        <v>892000</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -11889,20 +11139,14 @@
       <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>$2,225,000</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>$1,112,500</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>$1,112,500</t>
-        </is>
+      <c r="D9" t="n">
+        <v>2225000</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1112500</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1112500</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
@@ -11933,20 +11177,14 @@
       <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>$2,557,927</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>$1,278,964</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>$1,278,964</t>
-        </is>
+      <c r="D10" t="n">
+        <v>2557927</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1278964</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1278964</v>
       </c>
       <c r="G10" t="n">
         <v>7</v>
@@ -11977,20 +11215,14 @@
       <c r="C11" t="n">
         <v>1</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>$1,300,000</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>$1,300,000</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>$1,300,000</t>
-        </is>
+      <c r="D11" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1300000</v>
       </c>
       <c r="G11" t="n">
         <v>2</v>
@@ -12021,20 +11253,14 @@
       <c r="C12" t="n">
         <v>1</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>$1,342,000</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>$1,342,000</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>$1,342,000</t>
-        </is>
+      <c r="D12" t="n">
+        <v>1342000</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1342000</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1342000</v>
       </c>
       <c r="G12" t="n">
         <v>4</v>
@@ -12065,20 +11291,14 @@
       <c r="C13" t="n">
         <v>1</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>$963,000</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>$963,000</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>$963,000</t>
-        </is>
+      <c r="D13" t="n">
+        <v>963000</v>
+      </c>
+      <c r="E13" t="n">
+        <v>963000</v>
+      </c>
+      <c r="F13" t="n">
+        <v>963000</v>
       </c>
       <c r="G13" t="n">
         <v>3</v>
@@ -12109,20 +11329,14 @@
       <c r="C14" t="n">
         <v>29</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>$44,725,747</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>$1,542,267</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>$1,282,000</t>
-        </is>
+      <c r="D14" t="n">
+        <v>44725747</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1542267</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1282000</v>
       </c>
       <c r="G14" t="n">
         <v>42</v>
@@ -12153,20 +11367,14 @@
       <c r="C15" t="n">
         <v>11</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>$17,034,748</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>$1,548,613</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>$1,282,000</t>
-        </is>
+      <c r="D15" t="n">
+        <v>17034748</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1548613</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1282000</v>
       </c>
       <c r="G15" t="n">
         <v>15</v>
@@ -12197,20 +11405,14 @@
       <c r="C16" t="n">
         <v>4</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>$9,670,000</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>$2,417,500</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>$2,300,000</t>
-        </is>
+      <c r="D16" t="n">
+        <v>9670000</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2417500</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2300000</v>
       </c>
       <c r="G16" t="n">
         <v>6</v>
@@ -12241,20 +11443,14 @@
       <c r="C17" t="n">
         <v>1</v>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>$1,183,000</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>$1,183,000</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>$1,183,000</t>
-        </is>
+      <c r="D17" t="n">
+        <v>1183000</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1183000</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1183000</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -12285,20 +11481,14 @@
       <c r="C18" t="n">
         <v>4</v>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>$5,240,000</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>$1,310,000</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>$1,200,000</t>
-        </is>
+      <c r="D18" t="n">
+        <v>5240000</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1310000</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1200000</v>
       </c>
       <c r="G18" t="n">
         <v>10</v>
@@ -12329,20 +11519,14 @@
       <c r="C19" t="n">
         <v>1</v>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>$2,100,000</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>$2,100,000</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>$2,100,000</t>
-        </is>
+      <c r="D19" t="n">
+        <v>2100000</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2100000</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2100000</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
@@ -12373,20 +11557,14 @@
       <c r="C20" t="n">
         <v>3</v>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>$3,700,000</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>$1,233,333</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>$1,100,000</t>
-        </is>
+      <c r="D20" t="n">
+        <v>3700000</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1233333</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1100000</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -12417,20 +11595,14 @@
       <c r="C21" t="n">
         <v>1</v>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>$1,150,000</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>$1,150,000</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>$1,150,000</t>
-        </is>
+      <c r="D21" t="n">
+        <v>1150000</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1150000</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1150000</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
@@ -12461,20 +11633,14 @@
       <c r="C22" t="n">
         <v>4</v>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>$4,647,999</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>$1,162,000</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>$1,223,000</t>
-        </is>
+      <c r="D22" t="n">
+        <v>4647999</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1162000</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1223000</v>
       </c>
       <c r="G22" t="n">
         <v>5</v>
@@ -12505,20 +11671,14 @@
       <c r="C23" t="n">
         <v>14</v>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>$14,403,789</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>$1,028,842</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>$968,000</t>
-        </is>
+      <c r="D23" t="n">
+        <v>14403789</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1028842</v>
+      </c>
+      <c r="F23" t="n">
+        <v>968000</v>
       </c>
       <c r="G23" t="n">
         <v>22</v>
@@ -12549,20 +11709,14 @@
       <c r="C24" t="n">
         <v>4</v>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>$3,886,489</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>$971,622</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>$1,040,000</t>
-        </is>
+      <c r="D24" t="n">
+        <v>3886489</v>
+      </c>
+      <c r="E24" t="n">
+        <v>971622</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1040000</v>
       </c>
       <c r="G24" t="n">
         <v>6</v>
@@ -12593,20 +11747,14 @@
       <c r="C25" t="n">
         <v>2</v>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>$3,150,000</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>$1,575,000</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>$1,575,000</t>
-        </is>
+      <c r="D25" t="n">
+        <v>3150000</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1575000</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1575000</v>
       </c>
       <c r="G25" t="n">
         <v>5</v>
@@ -12637,20 +11785,14 @@
       <c r="C26" t="n">
         <v>5</v>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>$4,746,500</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>$949,300</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>$991,000</t>
-        </is>
+      <c r="D26" t="n">
+        <v>4746500</v>
+      </c>
+      <c r="E26" t="n">
+        <v>949300</v>
+      </c>
+      <c r="F26" t="n">
+        <v>991000</v>
       </c>
       <c r="G26" t="n">
         <v>5</v>
@@ -12681,20 +11823,14 @@
       <c r="C27" t="n">
         <v>1</v>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>$800,800</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>$800,800</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>$800,800</t>
-        </is>
+      <c r="D27" t="n">
+        <v>800800</v>
+      </c>
+      <c r="E27" t="n">
+        <v>800800</v>
+      </c>
+      <c r="F27" t="n">
+        <v>800800</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -12725,20 +11861,14 @@
       <c r="C28" t="n">
         <v>1</v>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>$900,000</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>$900,000</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>$900,000</t>
-        </is>
+      <c r="D28" t="n">
+        <v>900000</v>
+      </c>
+      <c r="E28" t="n">
+        <v>900000</v>
+      </c>
+      <c r="F28" t="n">
+        <v>900000</v>
       </c>
       <c r="G28" t="n">
         <v>2</v>
@@ -12769,20 +11899,14 @@
       <c r="C29" t="n">
         <v>1</v>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>$920,000</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>$920,000</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>$920,000</t>
-        </is>
+      <c r="D29" t="n">
+        <v>920000</v>
+      </c>
+      <c r="E29" t="n">
+        <v>920000</v>
+      </c>
+      <c r="F29" t="n">
+        <v>920000</v>
       </c>
       <c r="G29" t="n">
         <v>2</v>
@@ -12833,17 +11957,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Dollar Volume</t>
+          <t>Dollar Volume ($)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Average Price</t>
+          <t>Average Price ($)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Median Price</t>
+          <t>Median Price ($)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -12879,20 +12003,14 @@
       <c r="C2" t="n">
         <v>358</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>$281,190,457</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>$785,448</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>$752,000</t>
-        </is>
+      <c r="D2" t="n">
+        <v>281190457</v>
+      </c>
+      <c r="E2" t="n">
+        <v>785448</v>
+      </c>
+      <c r="F2" t="n">
+        <v>752000</v>
       </c>
       <c r="G2" t="n">
         <v>621</v>
@@ -12923,20 +12041,14 @@
       <c r="C3" t="n">
         <v>104</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>$86,049,058</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>$827,395</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>$777,500</t>
-        </is>
+      <c r="D3" t="n">
+        <v>86049058</v>
+      </c>
+      <c r="E3" t="n">
+        <v>827395</v>
+      </c>
+      <c r="F3" t="n">
+        <v>777500</v>
       </c>
       <c r="G3" t="n">
         <v>200</v>
@@ -12967,20 +12079,14 @@
       <c r="C4" t="n">
         <v>41</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>$31,234,500</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>$761,817</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>$725,000</t>
-        </is>
+      <c r="D4" t="n">
+        <v>31234500</v>
+      </c>
+      <c r="E4" t="n">
+        <v>761817</v>
+      </c>
+      <c r="F4" t="n">
+        <v>725000</v>
       </c>
       <c r="G4" t="n">
         <v>67</v>
@@ -13011,20 +12117,14 @@
       <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>$2,409,500</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>$1,204,750</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>$1,204,750</t>
-        </is>
+      <c r="D5" t="n">
+        <v>2409500</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1204750</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1204750</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
@@ -13055,20 +12155,14 @@
       <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>$6,190,000</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>$884,286</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>$900,000</t>
-        </is>
+      <c r="D6" t="n">
+        <v>6190000</v>
+      </c>
+      <c r="E6" t="n">
+        <v>884286</v>
+      </c>
+      <c r="F6" t="n">
+        <v>900000</v>
       </c>
       <c r="G6" t="n">
         <v>7</v>
@@ -13099,20 +12193,14 @@
       <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>$1,170,000</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>$585,000</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>$585,000</t>
-        </is>
+      <c r="D7" t="n">
+        <v>1170000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>585000</v>
+      </c>
+      <c r="F7" t="n">
+        <v>585000</v>
       </c>
       <c r="G7" t="n">
         <v>3</v>
@@ -13143,20 +12231,14 @@
       <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>$1,936,500</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>$645,500</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>$650,000</t>
-        </is>
+      <c r="D8" t="n">
+        <v>1936500</v>
+      </c>
+      <c r="E8" t="n">
+        <v>645500</v>
+      </c>
+      <c r="F8" t="n">
+        <v>650000</v>
       </c>
       <c r="G8" t="n">
         <v>16</v>
@@ -13187,20 +12269,14 @@
       <c r="C9" t="n">
         <v>10</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>$6,313,500</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>$631,350</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>$668,250</t>
-        </is>
+      <c r="D9" t="n">
+        <v>6313500</v>
+      </c>
+      <c r="E9" t="n">
+        <v>631350</v>
+      </c>
+      <c r="F9" t="n">
+        <v>668250</v>
       </c>
       <c r="G9" t="n">
         <v>15</v>
@@ -13231,20 +12307,14 @@
       <c r="C10" t="n">
         <v>6</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>$5,356,000</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>$892,667</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>$900,500</t>
-        </is>
+      <c r="D10" t="n">
+        <v>5356000</v>
+      </c>
+      <c r="E10" t="n">
+        <v>892667</v>
+      </c>
+      <c r="F10" t="n">
+        <v>900500</v>
       </c>
       <c r="G10" t="n">
         <v>7</v>
@@ -13275,20 +12345,14 @@
       <c r="C11" t="n">
         <v>5</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>$3,653,000</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>$730,600</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>$713,000</t>
-        </is>
+      <c r="D11" t="n">
+        <v>3653000</v>
+      </c>
+      <c r="E11" t="n">
+        <v>730600</v>
+      </c>
+      <c r="F11" t="n">
+        <v>713000</v>
       </c>
       <c r="G11" t="n">
         <v>8</v>
@@ -13319,20 +12383,14 @@
       <c r="C12" t="n">
         <v>2</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>$1,590,000</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>$795,000</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>$795,000</t>
-        </is>
+      <c r="D12" t="n">
+        <v>1590000</v>
+      </c>
+      <c r="E12" t="n">
+        <v>795000</v>
+      </c>
+      <c r="F12" t="n">
+        <v>795000</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -13363,20 +12421,14 @@
       <c r="C13" t="n">
         <v>4</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>$2,616,000</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>$654,000</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>$641,500</t>
-        </is>
+      <c r="D13" t="n">
+        <v>2616000</v>
+      </c>
+      <c r="E13" t="n">
+        <v>654000</v>
+      </c>
+      <c r="F13" t="n">
+        <v>641500</v>
       </c>
       <c r="G13" t="n">
         <v>8</v>
@@ -13407,20 +12459,14 @@
       <c r="C14" t="n">
         <v>32</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>$31,643,600</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>$988,863</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>$949,000</t>
-        </is>
+      <c r="D14" t="n">
+        <v>31643600</v>
+      </c>
+      <c r="E14" t="n">
+        <v>988863</v>
+      </c>
+      <c r="F14" t="n">
+        <v>949000</v>
       </c>
       <c r="G14" t="n">
         <v>75</v>
@@ -13451,20 +12497,14 @@
       <c r="C15" t="n">
         <v>10</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>$8,981,100</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>$898,110</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>$860,000</t>
-        </is>
+      <c r="D15" t="n">
+        <v>8981100</v>
+      </c>
+      <c r="E15" t="n">
+        <v>898110</v>
+      </c>
+      <c r="F15" t="n">
+        <v>860000</v>
       </c>
       <c r="G15" t="n">
         <v>22</v>
@@ -13495,20 +12535,14 @@
       <c r="C16" t="n">
         <v>1</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>$715,000</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>$715,000</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>$715,000</t>
-        </is>
+      <c r="D16" t="n">
+        <v>715000</v>
+      </c>
+      <c r="E16" t="n">
+        <v>715000</v>
+      </c>
+      <c r="F16" t="n">
+        <v>715000</v>
       </c>
       <c r="G16" t="n">
         <v>4</v>
@@ -13539,20 +12573,14 @@
       <c r="C17" t="n">
         <v>1</v>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>$1,368,000</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>$1,368,000</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>$1,368,000</t>
-        </is>
+      <c r="D17" t="n">
+        <v>1368000</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1368000</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1368000</v>
       </c>
       <c r="G17" t="n">
         <v>3</v>
@@ -13583,20 +12611,14 @@
       <c r="C18" t="n">
         <v>2</v>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>$2,130,000</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>$1,065,000</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>$1,065,000</t>
-        </is>
+      <c r="D18" t="n">
+        <v>2130000</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1065000</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1065000</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -13627,20 +12649,14 @@
       <c r="C19" t="n">
         <v>3</v>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>$3,837,500</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>$1,279,167</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>$1,230,000</t>
-        </is>
+      <c r="D19" t="n">
+        <v>3837500</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1279167</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1230000</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
@@ -13671,20 +12687,14 @@
       <c r="C20" t="n">
         <v>5</v>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>$4,799,000</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>$959,800</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>$1,029,000</t>
-        </is>
+      <c r="D20" t="n">
+        <v>4799000</v>
+      </c>
+      <c r="E20" t="n">
+        <v>959800</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1029000</v>
       </c>
       <c r="G20" t="n">
         <v>9</v>
@@ -13715,20 +12725,14 @@
       <c r="C21" t="n">
         <v>10</v>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>$9,813,000</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>$981,300</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>$895,000</t>
-        </is>
+      <c r="D21" t="n">
+        <v>9813000</v>
+      </c>
+      <c r="E21" t="n">
+        <v>981300</v>
+      </c>
+      <c r="F21" t="n">
+        <v>895000</v>
       </c>
       <c r="G21" t="n">
         <v>21</v>
@@ -13759,20 +12763,14 @@
       <c r="C22" t="n">
         <v>31</v>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>$23,170,958</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>$747,450</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>$750,000</t>
-        </is>
+      <c r="D22" t="n">
+        <v>23170958</v>
+      </c>
+      <c r="E22" t="n">
+        <v>747450</v>
+      </c>
+      <c r="F22" t="n">
+        <v>750000</v>
       </c>
       <c r="G22" t="n">
         <v>58</v>
@@ -13803,20 +12801,14 @@
       <c r="C23" t="n">
         <v>4</v>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>$3,347,058</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>$836,765</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>$793,529</t>
-        </is>
+      <c r="D23" t="n">
+        <v>3347058</v>
+      </c>
+      <c r="E23" t="n">
+        <v>836765</v>
+      </c>
+      <c r="F23" t="n">
+        <v>793529</v>
       </c>
       <c r="G23" t="n">
         <v>5</v>
@@ -13847,20 +12839,14 @@
       <c r="C24" t="n">
         <v>2</v>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>$1,415,000</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>$707,500</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>$707,500</t>
-        </is>
+      <c r="D24" t="n">
+        <v>1415000</v>
+      </c>
+      <c r="E24" t="n">
+        <v>707500</v>
+      </c>
+      <c r="F24" t="n">
+        <v>707500</v>
       </c>
       <c r="G24" t="n">
         <v>3</v>
@@ -13891,20 +12877,14 @@
       <c r="C25" t="n">
         <v>3</v>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>$2,615,000</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>$871,667</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>$865,000</t>
-        </is>
+      <c r="D25" t="n">
+        <v>2615000</v>
+      </c>
+      <c r="E25" t="n">
+        <v>871667</v>
+      </c>
+      <c r="F25" t="n">
+        <v>865000</v>
       </c>
       <c r="G25" t="n">
         <v>3</v>
@@ -13935,20 +12915,14 @@
       <c r="C26" t="n">
         <v>3</v>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>$2,248,000</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>$749,333</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>$760,000</t>
-        </is>
+      <c r="D26" t="n">
+        <v>2248000</v>
+      </c>
+      <c r="E26" t="n">
+        <v>749333</v>
+      </c>
+      <c r="F26" t="n">
+        <v>760000</v>
       </c>
       <c r="G26" t="n">
         <v>13</v>
@@ -13979,20 +12953,14 @@
       <c r="C27" t="n">
         <v>1</v>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>$860,000</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>$860,000</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>$860,000</t>
-        </is>
+      <c r="D27" t="n">
+        <v>860000</v>
+      </c>
+      <c r="E27" t="n">
+        <v>860000</v>
+      </c>
+      <c r="F27" t="n">
+        <v>860000</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -14023,20 +12991,14 @@
       <c r="C28" t="n">
         <v>4</v>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>$3,236,000</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>$809,000</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>$800,500</t>
-        </is>
+      <c r="D28" t="n">
+        <v>3236000</v>
+      </c>
+      <c r="E28" t="n">
+        <v>809000</v>
+      </c>
+      <c r="F28" t="n">
+        <v>800500</v>
       </c>
       <c r="G28" t="n">
         <v>5</v>
@@ -14067,20 +13029,14 @@
       <c r="C29" t="n">
         <v>6</v>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>$3,981,000</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>$663,500</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>$700,000</t>
-        </is>
+      <c r="D29" t="n">
+        <v>3981000</v>
+      </c>
+      <c r="E29" t="n">
+        <v>663500</v>
+      </c>
+      <c r="F29" t="n">
+        <v>700000</v>
       </c>
       <c r="G29" t="n">
         <v>6</v>
@@ -14111,20 +13067,14 @@
       <c r="C30" t="n">
         <v>2</v>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>$1,389,900</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>$694,950</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>$694,950</t>
-        </is>
+      <c r="D30" t="n">
+        <v>1389900</v>
+      </c>
+      <c r="E30" t="n">
+        <v>694950</v>
+      </c>
+      <c r="F30" t="n">
+        <v>694950</v>
       </c>
       <c r="G30" t="n">
         <v>8</v>
@@ -14155,20 +13105,14 @@
       <c r="C31" t="n">
         <v>6</v>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>$4,079,000</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>$679,833</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>$670,000</t>
-        </is>
+      <c r="D31" t="n">
+        <v>4079000</v>
+      </c>
+      <c r="E31" t="n">
+        <v>679833</v>
+      </c>
+      <c r="F31" t="n">
+        <v>670000</v>
       </c>
       <c r="G31" t="n">
         <v>9</v>
@@ -14219,17 +13163,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Dollar Volume</t>
+          <t>Dollar Volume ($)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Average Price</t>
+          <t>Average Price ($)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Median Price</t>
+          <t>Median Price ($)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -14267,20 +13211,14 @@
           <t>1,455</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>$1,026,461,979</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>$705,472</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>$630,000</t>
-        </is>
+      <c r="D2" t="n">
+        <v>1026461979</v>
+      </c>
+      <c r="E2" t="n">
+        <v>705472</v>
+      </c>
+      <c r="F2" t="n">
+        <v>630000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -14315,20 +13253,14 @@
           <t>952</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>$693,313,593</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>$728,271</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>$648,000</t>
-        </is>
+      <c r="D3" t="n">
+        <v>693313593</v>
+      </c>
+      <c r="E3" t="n">
+        <v>728271</v>
+      </c>
+      <c r="F3" t="n">
+        <v>648000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -14363,20 +13295,14 @@
           <t>209</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>$134,995,887</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>$645,913</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>$603,000</t>
-        </is>
+      <c r="D4" t="n">
+        <v>134995887</v>
+      </c>
+      <c r="E4" t="n">
+        <v>645913</v>
+      </c>
+      <c r="F4" t="n">
+        <v>603000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -14411,20 +13337,14 @@
           <t>22</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>$16,810,500</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>$764,114</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>$692,500</t>
-        </is>
+      <c r="D5" t="n">
+        <v>16810500</v>
+      </c>
+      <c r="E5" t="n">
+        <v>764114</v>
+      </c>
+      <c r="F5" t="n">
+        <v>692500</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -14459,20 +13379,14 @@
           <t>10</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>$6,566,900</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>$656,690</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>$642,000</t>
-        </is>
+      <c r="D6" t="n">
+        <v>6566900</v>
+      </c>
+      <c r="E6" t="n">
+        <v>656690</v>
+      </c>
+      <c r="F6" t="n">
+        <v>642000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -14507,20 +13421,14 @@
           <t>6</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>$2,950,000</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>$491,667</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>$507,500</t>
-        </is>
+      <c r="D7" t="n">
+        <v>2950000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>491667</v>
+      </c>
+      <c r="F7" t="n">
+        <v>507500</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -14555,20 +13463,14 @@
           <t>22</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>$11,835,300</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>$537,968</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>$560,500</t>
-        </is>
+      <c r="D8" t="n">
+        <v>11835300</v>
+      </c>
+      <c r="E8" t="n">
+        <v>537968</v>
+      </c>
+      <c r="F8" t="n">
+        <v>560500</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -14603,20 +13505,14 @@
           <t>20</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>$10,366,000</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>$518,300</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>$535,000</t>
-        </is>
+      <c r="D9" t="n">
+        <v>10366000</v>
+      </c>
+      <c r="E9" t="n">
+        <v>518300</v>
+      </c>
+      <c r="F9" t="n">
+        <v>535000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -14651,20 +13547,14 @@
           <t>60</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>$45,762,387</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>$762,706</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>$665,000</t>
-        </is>
+      <c r="D10" t="n">
+        <v>45762387</v>
+      </c>
+      <c r="E10" t="n">
+        <v>762706</v>
+      </c>
+      <c r="F10" t="n">
+        <v>665000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -14699,20 +13589,14 @@
           <t>3</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>$1,870,000</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>$623,333</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>$630,000</t>
-        </is>
+      <c r="D11" t="n">
+        <v>1870000</v>
+      </c>
+      <c r="E11" t="n">
+        <v>623333</v>
+      </c>
+      <c r="F11" t="n">
+        <v>630000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -14747,20 +13631,14 @@
           <t>40</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>$26,240,800</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>$656,020</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>$630,000</t>
-        </is>
+      <c r="D12" t="n">
+        <v>26240800</v>
+      </c>
+      <c r="E12" t="n">
+        <v>656020</v>
+      </c>
+      <c r="F12" t="n">
+        <v>630000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -14795,20 +13673,14 @@
           <t>9</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>$3,915,500</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>$435,056</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>$438,000</t>
-        </is>
+      <c r="D13" t="n">
+        <v>3915500</v>
+      </c>
+      <c r="E13" t="n">
+        <v>435056</v>
+      </c>
+      <c r="F13" t="n">
+        <v>438000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -14843,20 +13715,14 @@
           <t>17</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>$8,678,500</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>$510,500</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>$525,000</t>
-        </is>
+      <c r="D14" t="n">
+        <v>8678500</v>
+      </c>
+      <c r="E14" t="n">
+        <v>510500</v>
+      </c>
+      <c r="F14" t="n">
+        <v>525000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -14891,20 +13757,14 @@
           <t>620</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>$488,223,442</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>$787,457</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>$683,500</t>
-        </is>
+      <c r="D15" t="n">
+        <v>488223442</v>
+      </c>
+      <c r="E15" t="n">
+        <v>787457</v>
+      </c>
+      <c r="F15" t="n">
+        <v>683500</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -14939,20 +13799,14 @@
           <t>218</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>$174,551,265</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>$800,694</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>$679,000</t>
-        </is>
+      <c r="D16" t="n">
+        <v>174551265</v>
+      </c>
+      <c r="E16" t="n">
+        <v>800694</v>
+      </c>
+      <c r="F16" t="n">
+        <v>679000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -14987,20 +13841,14 @@
           <t>38</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>$45,462,706</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>$1,196,387</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>$940,000</t>
-        </is>
+      <c r="D17" t="n">
+        <v>45462706</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1196387</v>
+      </c>
+      <c r="F17" t="n">
+        <v>940000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -15035,20 +13883,14 @@
           <t>12</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>$8,101,700</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>$675,142</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>$595,000</t>
-        </is>
+      <c r="D18" t="n">
+        <v>8101700</v>
+      </c>
+      <c r="E18" t="n">
+        <v>675142</v>
+      </c>
+      <c r="F18" t="n">
+        <v>595000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -15083,20 +13925,14 @@
           <t>8</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>$8,694,500</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>$1,086,813</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>$672,500</t>
-        </is>
+      <c r="D19" t="n">
+        <v>8694500</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1086813</v>
+      </c>
+      <c r="F19" t="n">
+        <v>672500</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -15131,20 +13967,14 @@
           <t>10</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>$5,881,000</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>$588,100</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>$571,000</t>
-        </is>
+      <c r="D20" t="n">
+        <v>5881000</v>
+      </c>
+      <c r="E20" t="n">
+        <v>588100</v>
+      </c>
+      <c r="F20" t="n">
+        <v>571000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -15179,20 +14009,14 @@
           <t>33</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>$22,662,300</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>$686,736</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>$677,000</t>
-        </is>
+      <c r="D21" t="n">
+        <v>22662300</v>
+      </c>
+      <c r="E21" t="n">
+        <v>686736</v>
+      </c>
+      <c r="F21" t="n">
+        <v>677000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -15227,20 +14051,14 @@
           <t>124</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>$91,220,506</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>$735,649</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>$676,500</t>
-        </is>
+      <c r="D22" t="n">
+        <v>91220506</v>
+      </c>
+      <c r="E22" t="n">
+        <v>735649</v>
+      </c>
+      <c r="F22" t="n">
+        <v>676500</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -15275,20 +14093,14 @@
           <t>8</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>$9,827,000</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>$1,228,375</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>$1,014,500</t>
-        </is>
+      <c r="D23" t="n">
+        <v>9827000</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1228375</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1014500</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -15323,20 +14135,14 @@
           <t>34</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>$23,996,913</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>$705,792</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>$662,500</t>
-        </is>
+      <c r="D24" t="n">
+        <v>23996913</v>
+      </c>
+      <c r="E24" t="n">
+        <v>705792</v>
+      </c>
+      <c r="F24" t="n">
+        <v>662500</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -15371,20 +14177,14 @@
           <t>9</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>$5,519,000</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>$613,222</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>$601,000</t>
-        </is>
+      <c r="D25" t="n">
+        <v>5519000</v>
+      </c>
+      <c r="E25" t="n">
+        <v>613222</v>
+      </c>
+      <c r="F25" t="n">
+        <v>601000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -15419,20 +14219,14 @@
           <t>7</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>$7,086,000</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>$1,012,286</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>$950,000</t>
-        </is>
+      <c r="D26" t="n">
+        <v>7086000</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1012286</v>
+      </c>
+      <c r="F26" t="n">
+        <v>950000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -15467,20 +14261,14 @@
           <t>20</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>$14,158,700</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>$707,935</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>$683,850</t>
-        </is>
+      <c r="D27" t="n">
+        <v>14158700</v>
+      </c>
+      <c r="E27" t="n">
+        <v>707935</v>
+      </c>
+      <c r="F27" t="n">
+        <v>683850</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -15515,20 +14303,14 @@
           <t>49</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>$35,778,764</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>$730,179</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>$738,000</t>
-        </is>
+      <c r="D28" t="n">
+        <v>35778764</v>
+      </c>
+      <c r="E28" t="n">
+        <v>730179</v>
+      </c>
+      <c r="F28" t="n">
+        <v>738000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -15563,20 +14345,14 @@
           <t>50</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>$35,283,088</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>$705,662</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>$642,000</t>
-        </is>
+      <c r="D29" t="n">
+        <v>35283088</v>
+      </c>
+      <c r="E29" t="n">
+        <v>705662</v>
+      </c>
+      <c r="F29" t="n">
+        <v>642000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -15611,20 +14387,14 @@
           <t>123</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>$70,094,264</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>$569,872</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>$555,000</t>
-        </is>
+      <c r="D30" t="n">
+        <v>70094264</v>
+      </c>
+      <c r="E30" t="n">
+        <v>569872</v>
+      </c>
+      <c r="F30" t="n">
+        <v>555000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -15659,20 +14429,14 @@
           <t>11</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>$7,538,000</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>$685,273</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>$630,000</t>
-        </is>
+      <c r="D31" t="n">
+        <v>7538000</v>
+      </c>
+      <c r="E31" t="n">
+        <v>685273</v>
+      </c>
+      <c r="F31" t="n">
+        <v>630000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -15707,20 +14471,14 @@
           <t>4</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>$3,653,200</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>$913,300</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>$901,600</t>
-        </is>
+      <c r="D32" t="n">
+        <v>3653200</v>
+      </c>
+      <c r="E32" t="n">
+        <v>913300</v>
+      </c>
+      <c r="F32" t="n">
+        <v>901600</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -15755,20 +14513,14 @@
           <t>11</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>$5,242,789</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>$476,617</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>$465,000</t>
-        </is>
+      <c r="D33" t="n">
+        <v>5242789</v>
+      </c>
+      <c r="E33" t="n">
+        <v>476617</v>
+      </c>
+      <c r="F33" t="n">
+        <v>465000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -15803,20 +14555,14 @@
           <t>11</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>$5,956,000</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>$541,455</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>$545,000</t>
-        </is>
+      <c r="D34" t="n">
+        <v>5956000</v>
+      </c>
+      <c r="E34" t="n">
+        <v>541455</v>
+      </c>
+      <c r="F34" t="n">
+        <v>545000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -15851,20 +14597,14 @@
           <t>15</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>$9,493,600</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>$632,907</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>$628,800</t>
-        </is>
+      <c r="D35" t="n">
+        <v>9493600</v>
+      </c>
+      <c r="E35" t="n">
+        <v>632907</v>
+      </c>
+      <c r="F35" t="n">
+        <v>628800</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -15899,20 +14639,14 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>$1,200,000</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>$600,000</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>$600,000</t>
-        </is>
+      <c r="D36" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="E36" t="n">
+        <v>600000</v>
+      </c>
+      <c r="F36" t="n">
+        <v>600000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -15947,20 +14681,14 @@
           <t>23</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>$12,792,387</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>$556,191</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>$550,000</t>
-        </is>
+      <c r="D37" t="n">
+        <v>12792387</v>
+      </c>
+      <c r="E37" t="n">
+        <v>556191</v>
+      </c>
+      <c r="F37" t="n">
+        <v>550000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -15995,20 +14723,14 @@
           <t>14</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>$7,326,000</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>$523,286</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>$523,500</t>
-        </is>
+      <c r="D38" t="n">
+        <v>7326000</v>
+      </c>
+      <c r="E38" t="n">
+        <v>523286</v>
+      </c>
+      <c r="F38" t="n">
+        <v>523500</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -16043,20 +14765,14 @@
           <t>15</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>$8,292,000</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>$552,800</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>$555,000</t>
-        </is>
+      <c r="D39" t="n">
+        <v>8292000</v>
+      </c>
+      <c r="E39" t="n">
+        <v>552800</v>
+      </c>
+      <c r="F39" t="n">
+        <v>555000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -16091,20 +14807,14 @@
           <t>3</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>$1,582,000</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>$527,333</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>$506,000</t>
-        </is>
+      <c r="D40" t="n">
+        <v>1582000</v>
+      </c>
+      <c r="E40" t="n">
+        <v>527333</v>
+      </c>
+      <c r="F40" t="n">
+        <v>506000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -16139,20 +14849,14 @@
           <t>14</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>$7,018,288</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>$501,306</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>$492,450</t>
-        </is>
+      <c r="D41" t="n">
+        <v>7018288</v>
+      </c>
+      <c r="E41" t="n">
+        <v>501306</v>
+      </c>
+      <c r="F41" t="n">
+        <v>492450</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -16205,17 +14909,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Dollar Volume</t>
+          <t>Dollar Volume ($)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Average Price</t>
+          <t>Average Price ($)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Median Price</t>
+          <t>Median Price ($)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -16251,20 +14955,14 @@
       <c r="C2" t="n">
         <v>24</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>$26,854,772</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>$1,118,949</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>$1,125,000</t>
-        </is>
+      <c r="D2" t="n">
+        <v>26854772</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1118949</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1125000</v>
       </c>
       <c r="G2" t="n">
         <v>36</v>
@@ -16295,20 +14993,14 @@
       <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>$2,245,000</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>$1,122,500</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>$1,122,500</t>
-        </is>
+      <c r="D3" t="n">
+        <v>2245000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1122500</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1122500</v>
       </c>
       <c r="G3" t="n">
         <v>3</v>
@@ -16339,20 +15031,14 @@
       <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>$2,245,000</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>$1,122,500</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>$1,122,500</t>
-        </is>
+      <c r="D4" t="n">
+        <v>2245000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1122500</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1122500</v>
       </c>
       <c r="G4" t="n">
         <v>3</v>
@@ -16383,20 +15069,14 @@
       <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>$2,245,000</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>$1,122,500</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>$1,122,500</t>
-        </is>
+      <c r="D5" t="n">
+        <v>2245000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1122500</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1122500</v>
       </c>
       <c r="G5" t="n">
         <v>3</v>
@@ -16447,17 +15127,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Dollar Volume</t>
+          <t>Dollar Volume ($)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Average Price</t>
+          <t>Average Price ($)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Median Price</t>
+          <t>Median Price ($)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -16493,20 +15173,14 @@
       <c r="C2" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>$1,905,888</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>$476,472</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>$376,000</t>
-        </is>
+      <c r="D2" t="n">
+        <v>1905888</v>
+      </c>
+      <c r="E2" t="n">
+        <v>476472</v>
+      </c>
+      <c r="F2" t="n">
+        <v>376000</v>
       </c>
       <c r="G2" t="n">
         <v>9</v>
@@ -16537,20 +15211,14 @@
       <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>$382,000</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>$382,000</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>$382,000</t>
-        </is>
+      <c r="D3" t="n">
+        <v>382000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>382000</v>
+      </c>
+      <c r="F3" t="n">
+        <v>382000</v>
       </c>
       <c r="G3" t="n">
         <v>8</v>
@@ -16581,20 +15249,14 @@
       <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>$382,000</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>$382,000</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>$382,000</t>
-        </is>
+      <c r="D4" t="n">
+        <v>382000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>382000</v>
+      </c>
+      <c r="F4" t="n">
+        <v>382000</v>
       </c>
       <c r="G4" t="n">
         <v>2</v>
@@ -16625,20 +15287,14 @@
       <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>$382,000</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>$382,000</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>$382,000</t>
-        </is>
+      <c r="D5" t="n">
+        <v>382000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>382000</v>
+      </c>
+      <c r="F5" t="n">
+        <v>382000</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -16689,17 +15345,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Dollar Volume</t>
+          <t>Dollar Volume ($)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Average Price</t>
+          <t>Average Price ($)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Median Price</t>
+          <t>Median Price ($)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -16735,20 +15391,14 @@
       <c r="C2" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>$2,089,000</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>$1,044,500</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>$1,044,500</t>
-        </is>
+      <c r="D2" t="n">
+        <v>2089000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1044500</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1044500</v>
       </c>
       <c r="G2" t="n">
         <v>9</v>
